--- a/reports/corpus_wicaksono-unigram_bigram-fold-1.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram-fold-1.xlsx
@@ -601,85 +601,85 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9739583333333334</v>
+        <v>0.984375</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9679878048780488</v>
+        <v>0.9923780487804879</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9308176100628931</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9726027397260274</v>
+        <v>0.9902152641878669</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.7807692307692308</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9017857142857143</v>
+        <v>0.9910714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8857142857142857</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.988168480832939</v>
+        <v>0.983909133932797</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3517110266159696</v>
+        <v>0.4980988593155893</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7621621621621621</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="X2" t="n">
         <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8842105263157894</v>
+        <v>0.9421052631578948</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4661654135338346</v>
+        <v>0.7048872180451128</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8424806201550388</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7194796974126338</v>
+        <v>0.8179602412631374</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9135724336666157</v>
+        <v>0.9288378239992712</v>
       </c>
     </row>
     <row r="3">
@@ -698,52 +698,52 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9790575916230366</v>
+        <v>0.9895287958115183</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9984662576687117</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9764243614931237</v>
+        <v>0.9844357976653697</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9485981308411215</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9805825242718447</v>
+        <v>0.9823008849557522</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6861649687808085</v>
+        <v>0.781578947368421</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.875</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="R3" t="n">
-        <v>0.893719806763285</v>
+        <v>0.8972602739726028</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -752,31 +752,31 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.9939024390243902</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0.9781420765027322</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.97911227154047</v>
       </c>
       <c r="AB3" t="n">
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8424806201550388</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8591378243964484</v>
+        <v>0.8845036449429735</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8424806201550388</v>
+        <v>0.8981395348837209</v>
       </c>
     </row>
     <row r="4">
@@ -795,85 +795,85 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9765013054830288</v>
+        <v>0.9869451697127937</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9838709677419354</v>
       </c>
       <c r="I4" t="n">
-        <v>0.983733539891557</v>
+        <v>0.9954128440366974</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9641693811074918</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4799999999999999</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9745098039215686</v>
+        <v>0.9873170731707317</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.8565400843881857</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9395348837209301</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9393939393939393</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8099301784328937</v>
+        <v>0.8711502199874293</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0.504774897680764</v>
+        <v>0.6405867970660147</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9902912621359222</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8650306748466258</v>
+        <v>0.9340974212034383</v>
       </c>
       <c r="X4" t="n">
         <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9385474860335195</v>
+        <v>0.9597855227882037</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7153284671532847</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6326530612244897</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8424806201550388</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7652356432249284</v>
+        <v>0.8409612865980333</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.854995215049986</v>
+        <v>0.9037322129451656</v>
       </c>
     </row>
     <row r="5">
@@ -898,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" t="n">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="J5" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="M5" t="n">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="N5" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P5" t="n">
-        <v>3043</v>
+        <v>2660</v>
       </c>
       <c r="Q5" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R5" t="n">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W5" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="X5" t="n">
         <v>4</v>
       </c>
       <c r="Y5" t="n">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Z5" t="n">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="n">
-        <v>252</v>
+        <v>383</v>
       </c>
       <c r="AB5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8424806201550388</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AD5" t="n">
         <v>6450</v>

--- a/reports/corpus_wicaksono-unigram_bigram-fold-1.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram-fold-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,65 +521,60 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NPN</t>
+          <t>PRL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>PRN</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>VBT</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -640,46 +635,43 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4980988593155893</v>
+        <v>0.4952741020793951</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9807692307692307</v>
+        <v>0.8810810810810811</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8810810810810811</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0.9421052631578948</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9421052631578948</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7542857142857143</v>
+        <v>0.7048872180451128</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7048872180451128</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8981395348837209</v>
+        <v>0.8493116060334043</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8179602412631374</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.9288378239992712</v>
+        <v>0.9287099435166404</v>
       </c>
     </row>
     <row r="3">
@@ -740,42 +732,39 @@
         <v>0.8972602739726028</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9939024390243902</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9939024390243902</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.9781420765027322</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9781420765027322</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9924812030075187</v>
+        <v>0.97911227154047</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.97911227154047</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8981395348837209</v>
+        <v>0.9185230159023187</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8845036449429735</v>
-      </c>
-      <c r="AE3" t="n">
         <v>0.8981395348837209</v>
       </c>
     </row>
@@ -834,46 +823,43 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6405867970660147</v>
+        <v>0.6382460414129111</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0.9902912621359222</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9902912621359222</v>
+        <v>0.9340974212034383</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9340974212034383</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0.9597855227882037</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9597855227882037</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.819672131147541</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8981395348837209</v>
+        <v>0.8732159224036076</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8409612865980333</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.9037322129451656</v>
+        <v>0.9036262438520329</v>
       </c>
     </row>
     <row r="5">
@@ -934,42 +920,39 @@
         <v>292</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="V5" t="n">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="W5" t="n">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="Y5" t="n">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="Z5" t="n">
-        <v>133</v>
+        <v>383</v>
       </c>
       <c r="AA5" t="n">
-        <v>383</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="n">
-        <v>5</v>
+        <v>0.8981395348837209</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8981395348837209</v>
+        <v>6450</v>
       </c>
       <c r="AD5" t="n">
-        <v>6450</v>
-      </c>
-      <c r="AE5" t="n">
         <v>6450</v>
       </c>
     </row>
